--- a/biology/Botanique/Narcissus_×medioluteus/Narcissus_×medioluteus.xlsx
+++ b/biology/Botanique/Narcissus_×medioluteus/Narcissus_×medioluteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Narcissus_%C3%97medioluteus</t>
+          <t>Narcissus_×medioluteus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Narcisse à deux fleurs (Narcissus ×medioluteus) est une espèce hybride de plante de la famille des Amaryllidaceae (ou optionnellement de celle des Alliaceae, selon la classification phylogénétique utilisée).
 C'est le premier narcisse connu de type poetaz, correspondant au croisement entre Narcissus poeticus (le Narcisse des poètes) et Narcissus tazetta (le Narcisse à bouquet).
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Narcissus_%C3%97medioluteus</t>
+          <t>Narcissus_×medioluteus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Narcissus ×biflorus Curtis</t>
         </is>
